--- a/WorkBot/refactor/data/orders/Sysco/CompletedOrders/Sysco_Bakery_2025-08-03.xlsx
+++ b/WorkBot/refactor/data/orders/Sysco/CompletedOrders/Sysco_Bakery_2025-08-03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,33 +880,6 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7086864</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Chocolate Chips - White</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>99.99</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
